--- a/analysis/queryResults/FrequentItemsets_hstsPolicyStatus20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_hstsPolicyStatus20022018.xlsx
@@ -30,28 +30,13 @@
     <t>count</t>
   </si>
   <si>
-    <t>{hstsPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
     <t>{rating=A}</t>
-  </si>
-  <si>
-    <t>{rating=A,hstsPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
-    <t>{hstsPolicy.status=\present\"}"</t>
   </si>
   <si>
     <t>{rating=A+}</t>
   </si>
   <si>
-    <t>{rating=A+,hstsPolicy.status=\present\"}"</t>
-  </si>
-  <si>
     <t>{rating=B}</t>
-  </si>
-  <si>
-    <t>{rating=B,hstsPolicy.status=\absent\"}"</t>
   </si>
   <si>
     <t>{rating=A-}</t>
@@ -63,85 +48,22 @@
     <t>{rating=C}</t>
   </si>
   <si>
-    <t>{rating=A-,hstsPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
-    <t>{rating=F,hstsPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
-    <t>{rating=C,hstsPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
     <t>{rating=T}</t>
-  </si>
-  <si>
-    <t>{rating=T,hstsPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A,hstsPolicy.status=\present\"}"</t>
   </si>
   <si>
     <t>{hstsPolicy.status=null}</t>
   </si>
   <si>
-    <t>{hstsPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
-    <t>{rating=B,hstsPolicy.status=\present\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A-,hstsPolicy.status=\present\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A,hstsPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
-    <t>{rating=C,hstsPolicy.status=\present\"}"</t>
-  </si>
-  <si>
     <t>{rating=A,hstsPolicy.status=null}</t>
-  </si>
-  <si>
-    <t>{hstsPolicy.status=\disabled\"}"</t>
-  </si>
-  <si>
-    <t>{rating=F,hstsPolicy.status=\present\"}"</t>
-  </si>
-  <si>
-    <t>{rating=T,hstsPolicy.status=\present\"}"</t>
   </si>
   <si>
     <t>{rating=B,hstsPolicy.status=null}</t>
   </si>
   <si>
-    <t>{hstsPolicy.status=\invalid\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A,hstsPolicy.status=\disabled\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A,hstsPolicy.status=\invalid\"}"</t>
-  </si>
-  <si>
-    <t>{rating=C,hstsPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
     <t>{rating=A+,hstsPolicy.status=null}</t>
   </si>
   <si>
-    <t>{rating=A-,hstsPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
     <t>{rating=F,hstsPolicy.status=null}</t>
-  </si>
-  <si>
-    <t>{rating=T,hstsPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
-    <t>{rating=F,hstsPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
-    <t>{rating=B,hstsPolicy.status=\unknown\"}"</t>
   </si>
   <si>
     <t>{rating=C,hstsPolicy.status=null}</t>
@@ -153,31 +75,109 @@
     <t>{rating=T,hstsPolicy.status=null}</t>
   </si>
   <si>
-    <t>{rating=A-,hstsPolicy.status=\invalid\"}"</t>
+    <t>{hstsPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=B,hstsPolicy.status=\invalid\"}"</t>
+    <t>{rating=A,hstsPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=B,hstsPolicy.status=\disabled\"}"</t>
+    <t>{hstsPolicy.status=present}</t>
   </si>
   <si>
-    <t>{rating=F,hstsPolicy.status=\disabled\"}"</t>
+    <t>{rating=A+,hstsPolicy.status=present}</t>
   </si>
   <si>
-    <t>{rating=A-,hstsPolicy.status=\disabled\"}"</t>
+    <t>{rating=B,hstsPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=C,hstsPolicy.status=\invalid\"}"</t>
+    <t>{rating=A-,hstsPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=F,hstsPolicy.status=\invalid\"}"</t>
+    <t>{rating=F,hstsPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=C,hstsPolicy.status=\disabled\"}"</t>
+    <t>{rating=C,hstsPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=T,hstsPolicy.status=\disabled\"}"</t>
+    <t>{rating=T,hstsPolicy.status=absent}</t>
+  </si>
+  <si>
+    <t>{rating=A,hstsPolicy.status=present}</t>
+  </si>
+  <si>
+    <t>{hstsPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=B,hstsPolicy.status=present}</t>
+  </si>
+  <si>
+    <t>{rating=A-,hstsPolicy.status=present}</t>
+  </si>
+  <si>
+    <t>{rating=A,hstsPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=C,hstsPolicy.status=present}</t>
+  </si>
+  <si>
+    <t>{rating=F,hstsPolicy.status=present}</t>
+  </si>
+  <si>
+    <t>{rating=T,hstsPolicy.status=present}</t>
+  </si>
+  <si>
+    <t>{rating=C,hstsPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=A-,hstsPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=T,hstsPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=F,hstsPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=B,hstsPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{hstsPolicy.status=disabled}</t>
+  </si>
+  <si>
+    <t>{rating=A,hstsPolicy.status=disabled}</t>
+  </si>
+  <si>
+    <t>{rating=B,hstsPolicy.status=disabled}</t>
+  </si>
+  <si>
+    <t>{rating=F,hstsPolicy.status=disabled}</t>
+  </si>
+  <si>
+    <t>{rating=A-,hstsPolicy.status=disabled}</t>
+  </si>
+  <si>
+    <t>{rating=C,hstsPolicy.status=disabled}</t>
+  </si>
+  <si>
+    <t>{rating=T,hstsPolicy.status=disabled}</t>
+  </si>
+  <si>
+    <t>{hstsPolicy.status=invalid}</t>
+  </si>
+  <si>
+    <t>{rating=A,hstsPolicy.status=invalid}</t>
+  </si>
+  <si>
+    <t>{rating=A-,hstsPolicy.status=invalid}</t>
+  </si>
+  <si>
+    <t>{rating=B,hstsPolicy.status=invalid}</t>
+  </si>
+  <si>
+    <t>{rating=C,hstsPolicy.status=invalid}</t>
+  </si>
+  <si>
+    <t>{rating=F,hstsPolicy.status=invalid}</t>
   </si>
 </sst>
 </file>
@@ -763,6 +763,3820 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>HSTS Policy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Status Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$B$2,FrequentItemsets_hstsPolicyStat!$B$5,FrequentItemsets_hstsPolicyStat!$B$19,FrequentItemsets_hstsPolicyStat!$B$20,FrequentItemsets_hstsPolicyStat!$B$26,FrequentItemsets_hstsPolicyStat!$B$30)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>{hstsPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{hstsPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{hstsPolicy.status=disabled}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{hstsPolicy.status=invalid}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$C$2,FrequentItemsets_hstsPolicyStat!$C$5,FrequentItemsets_hstsPolicyStat!$C$19,FrequentItemsets_hstsPolicyStat!$C$20,FrequentItemsets_hstsPolicyStat!$C$26,FrequentItemsets_hstsPolicyStat!$C$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.73759692024074197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21227566014205901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14580057474381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.89773897955864E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5034430407200604E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1885810334544296E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-257954144"/>
+        <c:axId val="-530026064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-257954144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-530026064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-530026064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-257954144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>HSTS Policy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Status Absent Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$B$2,FrequentItemsets_hstsPolicyStat!$B$4,FrequentItemsets_hstsPolicyStat!$B$9,FrequentItemsets_hstsPolicyStat!$B$13,FrequentItemsets_hstsPolicyStat!$B$14,FrequentItemsets_hstsPolicyStat!$B$15,FrequentItemsets_hstsPolicyStat!$B$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>{hstsPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,hstsPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,hstsPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A-,hstsPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=F,hstsPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=C,hstsPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=T,hstsPolicy.status=absent}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$C$2,FrequentItemsets_hstsPolicyStat!$C$4,FrequentItemsets_hstsPolicyStat!$C$9,FrequentItemsets_hstsPolicyStat!$C$13,FrequentItemsets_hstsPolicyStat!$C$14,FrequentItemsets_hstsPolicyStat!$C$15,FrequentItemsets_hstsPolicyStat!$C$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73759692024074197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35307433714688502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11023152415550599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0803014693921801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9854145204142496E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1815865097869094E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1790923385566302E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-222176256"/>
+        <c:axId val="-222185504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-222176256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-222185504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-222185504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-222176256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>HSTS Policy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Status Present Rating Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$B$5,FrequentItemsets_hstsPolicyStat!$B$7,FrequentItemsets_hstsPolicyStat!$B$18,FrequentItemsets_hstsPolicyStat!$B$21,FrequentItemsets_hstsPolicyStat!$B$22,FrequentItemsets_hstsPolicyStat!$B$24,FrequentItemsets_hstsPolicyStat!$B$27,FrequentItemsets_hstsPolicyStat!$B$28)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A+,hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A,hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=B,hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=A-,hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=C,hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=F,hstsPolicy.status=present}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,hstsPolicy.status=present}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$C$5,FrequentItemsets_hstsPolicyStat!$C$7,FrequentItemsets_hstsPolicyStat!$C$18,FrequentItemsets_hstsPolicyStat!$C$21,FrequentItemsets_hstsPolicyStat!$C$22,FrequentItemsets_hstsPolicyStat!$C$24,FrequentItemsets_hstsPolicyStat!$C$27,FrequentItemsets_hstsPolicyStat!$C$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.21227566014205901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.140514016157892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3667516130781299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8516510329122202E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2253971696578599E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6963075421569204E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4898877622946403E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1374505232337497E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-142472048"/>
+        <c:axId val="-142475312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-142472048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-142475312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-142475312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-142472048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>HSTS Policy Status Null Ratings Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$B$19,FrequentItemsets_hstsPolicyStat!$B$25,FrequentItemsets_hstsPolicyStat!$B$29,FrequentItemsets_hstsPolicyStat!$B$34,FrequentItemsets_hstsPolicyStat!$B$36,FrequentItemsets_hstsPolicyStat!$B$40,FrequentItemsets_hstsPolicyStat!$B$41,FrequentItemsets_hstsPolicyStat!$B$42)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A+,hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=F,hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=C,hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=A-,hstsPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,hstsPolicy.status=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hstsPolicyStat!$C$19,FrequentItemsets_hstsPolicyStat!$C$25,FrequentItemsets_hstsPolicyStat!$C$29,FrequentItemsets_hstsPolicyStat!$C$34,FrequentItemsets_hstsPolicyStat!$C$36,FrequentItemsets_hstsPolicyStat!$C$40,FrequentItemsets_hstsPolicyStat!$C$41,FrequentItemsets_hstsPolicyStat!$C$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.14580057474381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0863200130130699E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8799002331507899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68394512823293E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.53483706555333E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0061812069619902E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.77574147372987E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.49108062679607E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-142485648"/>
+        <c:axId val="-142483472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-142485648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-142483472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-142483472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-142485648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391453</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>131258</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374031</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113836</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>370660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>94468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69872</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>84441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>343609</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>91552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141769</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>102891</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1028,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +4870,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>0.73759692024074197</v>
@@ -1070,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0.39661389144933001</v>
@@ -1084,7 +4898,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>0.35307433714688502</v>
@@ -1098,7 +4912,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>0.21227566014205901</v>
@@ -1112,7 +4926,7 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0.14326573767825199</v>
@@ -1126,7 +4940,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>0.140514016157892</v>
@@ -1140,7 +4954,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0.13658298541451999</v>
@@ -1154,7 +4968,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>0.11023152415550599</v>
@@ -1168,7 +4982,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>9.8235102749010497E-2</v>
@@ -1182,7 +4996,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>9.0657702109201294E-2</v>
@@ -1196,7 +5010,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>8.3703844276961495E-2</v>
@@ -1210,7 +5024,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>8.0803014693921801E-2</v>
@@ -1224,7 +5038,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>7.9854145204142496E-2</v>
@@ -1238,7 +5052,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>7.1815865097869094E-2</v>
@@ -1252,7 +5066,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>5.0940736322724098E-2</v>
@@ -1266,7 +5080,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>4.1790923385566302E-2</v>
@@ -1280,7 +5094,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>2.3667516130781299E-2</v>
@@ -1294,7 +5108,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5">
         <v>2.14580057474381E-2</v>
@@ -1308,7 +5122,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>1.89773897955864E-2</v>
@@ -1322,7 +5136,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
         <v>1.8516510329122202E-2</v>
@@ -1336,7 +5150,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
         <v>1.2253971696578599E-2</v>
@@ -1350,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
         <v>6.7911944911348502E-3</v>
@@ -1364,7 +5178,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4">
         <v>6.6963075421569204E-3</v>
@@ -1378,7 +5192,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C25" s="5">
         <v>6.0863200130130699E-3</v>
@@ -1392,7 +5206,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6">
         <v>5.5034430407200604E-3</v>
@@ -1406,7 +5220,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4">
         <v>5.4898877622946403E-3</v>
@@ -1420,7 +5234,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4">
         <v>5.1374505232337497E-3</v>
@@ -1434,7 +5248,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5">
         <v>4.8799002331507899E-3</v>
@@ -1448,7 +5262,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>4.1885810334544296E-3</v>
@@ -1462,7 +5276,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C31" s="6">
         <v>4.1750257550290104E-3</v>
@@ -1476,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>2.81949791248712E-3</v>
@@ -1490,7 +5304,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
         <v>2.7652767987854502E-3</v>
@@ -1504,7 +5318,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C34" s="5">
         <v>2.68394512823293E-3</v>
@@ -1532,7 +5346,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C36" s="5">
         <v>2.53483706555333E-3</v>
@@ -1546,7 +5360,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2">
         <v>2.3315078891720398E-3</v>
@@ -1560,7 +5374,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2">
         <v>2.25017621861953E-3</v>
@@ -1574,7 +5388,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2">
         <v>2.1552892696416002E-3</v>
@@ -1588,7 +5402,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C40" s="5">
         <v>2.0061812069619902E-3</v>
@@ -1602,7 +5416,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5">
         <v>1.77574147372987E-3</v>
@@ -1616,7 +5430,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C42" s="5">
         <v>1.49108062679607E-3</v>
@@ -1630,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>4.7443474488966002E-4</v>
@@ -1644,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>4.4732418803882201E-4</v>
@@ -1658,7 +5472,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C45" s="6">
         <v>3.5243723906088999E-4</v>
@@ -1672,7 +5486,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46" s="6">
         <v>3.3888196063547099E-4</v>
@@ -1686,7 +5500,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C47" s="6">
         <v>2.8466084693379599E-4</v>
@@ -1700,7 +5514,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>2.43995011657539E-4</v>
@@ -1714,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>1.89773897955864E-4</v>
@@ -1728,7 +5542,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C50" s="6">
         <v>1.76218619530445E-4</v>
@@ -1742,7 +5556,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C51" s="6">
         <v>1.76218619530445E-4</v>
@@ -1753,5 +5567,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/FrequentItemsets_hstsPolicyStatus20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_hstsPolicyStatus20022018.xlsx
@@ -802,7 +802,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Status Distributions</a:t>
+              <a:t> Status Distribution</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -981,11 +981,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-257954144"/>
-        <c:axId val="-530026064"/>
+        <c:axId val="-1483025072"/>
+        <c:axId val="-1483029968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-257954144"/>
+        <c:axId val="-1483025072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-530026064"/>
+        <c:crossAx val="-1483029968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1036,7 +1036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-530026064"/>
+        <c:axId val="-1483029968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +1087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-257954144"/>
+        <c:crossAx val="-1483025072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,7 +1131,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1175,7 +1175,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Status Absent Ratings Distributions</a:t>
+              <a:t> Status Absent Ratings Distribution</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1360,11 +1360,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-222176256"/>
-        <c:axId val="-222185504"/>
+        <c:axId val="-1483744608"/>
+        <c:axId val="-1483746240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-222176256"/>
+        <c:axId val="-1483744608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-222185504"/>
+        <c:crossAx val="-1483746240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-222185504"/>
+        <c:axId val="-1483746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-222176256"/>
+        <c:crossAx val="-1483744608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,7 +1510,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1745,11 +1745,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-142472048"/>
-        <c:axId val="-142475312"/>
+        <c:axId val="-1483745152"/>
+        <c:axId val="-1483731552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-142472048"/>
+        <c:axId val="-1483745152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-142475312"/>
+        <c:crossAx val="-1483731552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1800,7 +1800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-142475312"/>
+        <c:axId val="-1483731552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-142472048"/>
+        <c:crossAx val="-1483745152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1895,7 +1895,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2125,11 +2125,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-142485648"/>
-        <c:axId val="-142483472"/>
+        <c:axId val="-1483735904"/>
+        <c:axId val="-1483746784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-142485648"/>
+        <c:axId val="-1483735904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-142483472"/>
+        <c:crossAx val="-1483746784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2180,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-142483472"/>
+        <c:axId val="-1483746784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-142485648"/>
+        <c:crossAx val="-1483735904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,7 +2275,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4842,7 +4842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
